--- a/Data/NoStock_last_three_month_copy.xlsx
+++ b/Data/NoStock_last_three_month_copy.xlsx
@@ -82,27 +82,27 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 60mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 180mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 60mg Tablet - 40's</t>
+  </si>
+  <si>
     <t>Etorix 90mg Tablet</t>
   </si>
   <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
@@ -115,21 +115,21 @@
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 30mg IM/IV Injection - 4's</t>
+  </si>
+  <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
     <t>Ketonic 30mg Injection</t>
   </si>
   <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
+    <t>Kynol TR 200mg Capsule</t>
   </si>
   <si>
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
     <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
@@ -145,15 +145,15 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 30ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 15ml Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
     <t>Zithrox 250mg Tablet - 6's</t>
   </si>
   <si>
@@ -184,12 +184,12 @@
     <t>8 's</t>
   </si>
   <si>
+    <t>4's</t>
+  </si>
+  <si>
     <t>5 's</t>
   </si>
   <si>
-    <t>4's</t>
-  </si>
-  <si>
     <t>50 's</t>
   </si>
   <si>
@@ -205,13 +205,13 @@
     <t>1's</t>
   </si>
   <si>
+    <t>30ml</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>15 ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
   </si>
   <si>
     <t>6's</t>
@@ -758,7 +758,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -942,7 +942,7 @@
         <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F18">
         <v>0</v>

--- a/Data/NoStock_last_three_month_copy.xlsx
+++ b/Data/NoStock_last_three_month_copy.xlsx
@@ -82,46 +82,49 @@
     <t>Desodin 60ml Syrup</t>
   </si>
   <si>
+    <t>Dinafex 120mg Tablet</t>
+  </si>
+  <si>
+    <t>Dinafex 180mg Tablet</t>
+  </si>
+  <si>
     <t>Dinafex 60mg Tablet</t>
   </si>
   <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
     <t>Dorenta 50mg Tablet</t>
   </si>
   <si>
+    <t>Etorix 90mg Tablet</t>
+  </si>
+  <si>
     <t>Etorix 120mg Tablet</t>
   </si>
   <si>
     <t>Etorix 60mg Tablet - 40's</t>
   </si>
   <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
     <t>Fenobac 100ml Syrup</t>
   </si>
   <si>
+    <t>Flucloxin 500mg Capsule - 36's</t>
+  </si>
+  <si>
     <t>Flucloxin 500mg Capsule</t>
   </si>
   <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
     <t>Geminox 320mg Tablet - 8's</t>
   </si>
   <si>
+    <t>Ketonic 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Ketonic 30mg Injection</t>
+  </si>
+  <si>
     <t>Ketonic 30mg IM/IV Injection - 4's</t>
   </si>
   <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg Injection</t>
+    <t>Kynol D 25mg Tablet</t>
   </si>
   <si>
     <t>Kynol TR 200mg Capsule</t>
@@ -130,9 +133,6 @@
     <t>Kynol TR 100mg Capsule</t>
   </si>
   <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
     <t>Naprox Plus 500mg Tablet - 30's</t>
   </si>
   <si>
@@ -145,18 +145,18 @@
     <t>Rupaday Oral Solution 60ml</t>
   </si>
   <si>
+    <t>Zithrox 15ml Suspension</t>
+  </si>
+  <si>
+    <t>Zithrox 250mg Tablet - 6's</t>
+  </si>
+  <si>
+    <t>Zithrox 500mg Tablet</t>
+  </si>
+  <si>
     <t>Zithrox 30ml Dry Suspension</t>
   </si>
   <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
     <t>60 ml</t>
   </si>
   <si>
@@ -175,27 +175,27 @@
     <t>100ml</t>
   </si>
   <si>
+    <t>36 's</t>
+  </si>
+  <si>
     <t>30 's</t>
   </si>
   <si>
-    <t>36 's</t>
-  </si>
-  <si>
     <t>8 's</t>
   </si>
   <si>
+    <t>5 's</t>
+  </si>
+  <si>
     <t>4's</t>
   </si>
   <si>
-    <t>5 's</t>
+    <t>60 's</t>
   </si>
   <si>
     <t>50 's</t>
   </si>
   <si>
-    <t>60 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
@@ -205,16 +205,16 @@
     <t>1's</t>
   </si>
   <si>
+    <t>15 ml</t>
+  </si>
+  <si>
+    <t>6's</t>
+  </si>
+  <si>
+    <t>6 's</t>
+  </si>
+  <si>
     <t>30ml</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>6's</t>
   </si>
 </sst>
 </file>
@@ -735,7 +735,7 @@
         <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>28</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>34</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>37</v>
       </c>
       <c r="E18" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20">
         <v>0</v>

--- a/Data/NoStock_last_three_month_copy.xlsx
+++ b/Data/NoStock_last_three_month_copy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
   <si>
     <t>BSL NO</t>
   </si>
@@ -37,127 +37,298 @@
     <t>Estimated Sales</t>
   </si>
   <si>
-    <t>Desodin</t>
-  </si>
-  <si>
-    <t>Dinafex</t>
-  </si>
-  <si>
-    <t>Dorenta</t>
-  </si>
-  <si>
-    <t>Etorix</t>
-  </si>
-  <si>
-    <t>Fenobac</t>
-  </si>
-  <si>
-    <t>Flucloxin</t>
-  </si>
-  <si>
-    <t>Geminox</t>
-  </si>
-  <si>
-    <t>Ketonic</t>
-  </si>
-  <si>
-    <t>Kynol</t>
-  </si>
-  <si>
-    <t>Naprox</t>
-  </si>
-  <si>
-    <t>Oradin</t>
-  </si>
-  <si>
-    <t>Osticare</t>
-  </si>
-  <si>
-    <t>Rupaday</t>
-  </si>
-  <si>
-    <t>Zithrox</t>
-  </si>
-  <si>
-    <t>Desodin 60ml Syrup</t>
-  </si>
-  <si>
-    <t>Dinafex 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 180mg Tablet</t>
-  </si>
-  <si>
-    <t>Dinafex 60mg Tablet</t>
-  </si>
-  <si>
-    <t>Dorenta 50mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 90mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 120mg Tablet</t>
-  </si>
-  <si>
-    <t>Etorix 60mg Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Fenobac 100ml Syrup</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg Capsule - 36's</t>
-  </si>
-  <si>
-    <t>Flucloxin 500mg Capsule</t>
-  </si>
-  <si>
-    <t>Geminox 320mg Tablet - 8's</t>
-  </si>
-  <si>
-    <t>Ketonic 10mg Tablet</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg Injection</t>
-  </si>
-  <si>
-    <t>Ketonic 30mg IM/IV Injection - 4's</t>
-  </si>
-  <si>
-    <t>Kynol D 25mg Tablet</t>
-  </si>
-  <si>
-    <t>Kynol TR 200mg Capsule</t>
-  </si>
-  <si>
-    <t>Kynol TR 100mg Capsule</t>
-  </si>
-  <si>
-    <t>Naprox Plus 500mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Oradin Plus Tablet - 40's</t>
-  </si>
-  <si>
-    <t>Osticare Tablet 24's</t>
-  </si>
-  <si>
-    <t>Rupaday Oral Solution 60ml</t>
-  </si>
-  <si>
-    <t>Zithrox 15ml Suspension</t>
-  </si>
-  <si>
-    <t>Zithrox 250mg Tablet - 6's</t>
-  </si>
-  <si>
-    <t>Zithrox 500mg Tablet</t>
-  </si>
-  <si>
-    <t>Zithrox 30ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>60 ml</t>
+    <t>Cortider</t>
+  </si>
+  <si>
+    <t>Esoral</t>
+  </si>
+  <si>
+    <t>ETRIAM</t>
+  </si>
+  <si>
+    <t>Facid</t>
+  </si>
+  <si>
+    <t>Flucoder</t>
+  </si>
+  <si>
+    <t>Hairgrow</t>
+  </si>
+  <si>
+    <t>Kezona</t>
+  </si>
+  <si>
+    <t>Licnil</t>
+  </si>
+  <si>
+    <t>Losectil</t>
+  </si>
+  <si>
+    <t>Lulizol</t>
+  </si>
+  <si>
+    <t>Mupiron</t>
+  </si>
+  <si>
+    <t>Mycofin</t>
+  </si>
+  <si>
+    <t>Nospot</t>
+  </si>
+  <si>
+    <t>Orogurd</t>
+  </si>
+  <si>
+    <t>Panoral</t>
+  </si>
+  <si>
+    <t>Perosa</t>
+  </si>
+  <si>
+    <t>Rabifast</t>
+  </si>
+  <si>
+    <t>Softi</t>
+  </si>
+  <si>
+    <t>Sorex</t>
+  </si>
+  <si>
+    <t>Topibet</t>
+  </si>
+  <si>
+    <t>Topiclo</t>
+  </si>
+  <si>
+    <t>Cortider 10gm Cream</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Capsule - 30's</t>
+  </si>
+  <si>
+    <t>Esoral MUPS 20mg Tab 50s</t>
+  </si>
+  <si>
+    <t>Esoral Mups 40 Tablet</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule Container 30's</t>
+  </si>
+  <si>
+    <t>Esoral Injection &amp; Capsule 20</t>
+  </si>
+  <si>
+    <t>Esoral 40mg EC Tablet - 42's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 50's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 60's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 100's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg  Tablet 100's</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Esoral Injection &amp; MUPS 20</t>
+  </si>
+  <si>
+    <t>Esoral 40mg IV Injection</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet  80's</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet - 50's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet 112's</t>
+  </si>
+  <si>
+    <t>Etriam 10gm Cream</t>
+  </si>
+  <si>
+    <t>Facid 250mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Facid 15gm Cream</t>
+  </si>
+  <si>
+    <t>Facid 15gm Ointment</t>
+  </si>
+  <si>
+    <t>Facid HC Cream</t>
+  </si>
+  <si>
+    <t>Facid 10gm BT Cream</t>
+  </si>
+  <si>
+    <t>Flucoder 35ml Dry Suspension</t>
+  </si>
+  <si>
+    <t>Flucoder 200mg Capsule - 10's</t>
+  </si>
+  <si>
+    <t>Flucoder 150mg Capsule</t>
+  </si>
+  <si>
+    <t>Flucoder 50mg Capsule</t>
+  </si>
+  <si>
+    <t>Hairgrow 2% Topical Solution 60ml</t>
+  </si>
+  <si>
+    <t>Hairgrow 5% Topical Solution 60ml</t>
+  </si>
+  <si>
+    <t>Kezona 200mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Licnil 117gm Lotion</t>
+  </si>
+  <si>
+    <t>Licnil 60gm Lotion</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Powder for Oral Suspension - 30's</t>
+  </si>
+  <si>
+    <t>Losectil MUPS 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule (24's)</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule (100's)</t>
+  </si>
+  <si>
+    <t>Losectil 10mg Capsule 60's</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension</t>
+  </si>
+  <si>
+    <t>Losectil V 40mg Capsule</t>
+  </si>
+  <si>
+    <t>Losectil 40mg IV Injection</t>
+  </si>
+  <si>
+    <t>Losectil 10mg Capsule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losectil DR Tablet </t>
+  </si>
+  <si>
+    <t>Losectil Mups 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule 500s</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule - 48's</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule 60's</t>
+  </si>
+  <si>
+    <t>Losectil V 20mg Capsule</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule 120's</t>
+  </si>
+  <si>
+    <t>Losectil 20mg PFS 50's</t>
+  </si>
+  <si>
+    <t>Lulizol 20gm Cream</t>
+  </si>
+  <si>
+    <t>Lulizol 10gm Cream</t>
+  </si>
+  <si>
+    <t>Mupiron 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Mupiron 20gm Ointment</t>
+  </si>
+  <si>
+    <t>Mycofin 5gm Cream</t>
+  </si>
+  <si>
+    <t>Mycofin 250mg Tablet</t>
+  </si>
+  <si>
+    <t>Nospot 30gm Cream</t>
+  </si>
+  <si>
+    <t>Orogurd 15gm Oral Gel</t>
+  </si>
+  <si>
+    <t>Panoral 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Panoral 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Perosa 30gm Cream</t>
+  </si>
+  <si>
+    <t>Rabifast 20 mg Tablet</t>
+  </si>
+  <si>
+    <t>Rabifast 20mg Tablet - 50's</t>
+  </si>
+  <si>
+    <t>Softi Ointment 15gm</t>
+  </si>
+  <si>
+    <t>Softi Ointment 50gm</t>
+  </si>
+  <si>
+    <t>Sorex 5gm Oral Paste</t>
+  </si>
+  <si>
+    <t>Topibet CL 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo NN 15gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo S 6% 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo S Ointment 1's 20g</t>
+  </si>
+  <si>
+    <t>Topiclo S 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo 10gm Cream</t>
+  </si>
+  <si>
+    <t>10 gm</t>
   </si>
   <si>
     <t>30's</t>
@@ -166,55 +337,88 @@
     <t>50's</t>
   </si>
   <si>
+    <t>Bundle</t>
+  </si>
+  <si>
+    <t>42's</t>
+  </si>
+  <si>
+    <t>60's</t>
+  </si>
+  <si>
+    <t>100's</t>
+  </si>
+  <si>
+    <t>1's</t>
+  </si>
+  <si>
+    <t>80's</t>
+  </si>
+  <si>
     <t>20's</t>
   </si>
   <si>
+    <t>112's</t>
+  </si>
+  <si>
+    <t>10's</t>
+  </si>
+  <si>
+    <t>15gm</t>
+  </si>
+  <si>
+    <t>35ml</t>
+  </si>
+  <si>
+    <t>10 's</t>
+  </si>
+  <si>
+    <t>30 's</t>
+  </si>
+  <si>
+    <t>24 's</t>
+  </si>
+  <si>
+    <t>100 's</t>
+  </si>
+  <si>
+    <t>48 's</t>
+  </si>
+  <si>
+    <t>60 's</t>
+  </si>
+  <si>
+    <t>24's</t>
+  </si>
+  <si>
+    <t>500's</t>
+  </si>
+  <si>
+    <t>48's</t>
+  </si>
+  <si>
+    <t>120's</t>
+  </si>
+  <si>
+    <t>10gm</t>
+  </si>
+  <si>
+    <t>5gm</t>
+  </si>
+  <si>
     <t>40's</t>
   </si>
   <si>
-    <t>100ml</t>
-  </si>
-  <si>
-    <t>36 's</t>
-  </si>
-  <si>
-    <t>30 's</t>
-  </si>
-  <si>
-    <t>8 's</t>
-  </si>
-  <si>
-    <t>5 's</t>
-  </si>
-  <si>
-    <t>4's</t>
-  </si>
-  <si>
-    <t>60 's</t>
-  </si>
-  <si>
-    <t>50 's</t>
-  </si>
-  <si>
     <t>40 's</t>
   </si>
   <si>
-    <t>24's</t>
-  </si>
-  <si>
-    <t>1's</t>
-  </si>
-  <si>
-    <t>15 ml</t>
-  </si>
-  <si>
-    <t>6's</t>
-  </si>
-  <si>
-    <t>6 's</t>
-  </si>
-  <si>
-    <t>30ml</t>
+    <t>30 gm</t>
+  </si>
+  <si>
+    <t>70's</t>
+  </si>
+  <si>
+    <t>50gm</t>
   </si>
 </sst>
 </file>
@@ -572,7 +776,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -608,7 +812,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -617,21 +821,21 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>11808</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -640,21 +844,21 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>4742</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1066428</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -663,21 +867,21 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>12825</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>4807066</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -686,33 +890,33 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>105</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1871</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>589065</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -723,19 +927,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -746,19 +950,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -769,19 +973,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>106</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -792,19 +996,19 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -815,42 +1019,42 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>7800</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>4092972</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -861,42 +1065,42 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1678</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>301888</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -907,42 +1111,42 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>23262</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>890004</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>112</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -953,19 +1157,19 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -976,19 +1180,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -999,19 +1203,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1022,186 +1226,1336 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>8060</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>3383507</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>14822</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>444511</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>115</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1406</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>685087</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2839</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>191547</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>116</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>44260</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>3852</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>360932</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="E26" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>3788</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>482742</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27">
+        <v>527</v>
+      </c>
+      <c r="G27">
+        <v>30813</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28">
+        <v>74</v>
+      </c>
+      <c r="G28">
+        <v>13868</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E29" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29">
+        <v>221</v>
+      </c>
+      <c r="G29">
+        <v>36447</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>56</v>
+      </c>
+      <c r="E30" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30">
+        <v>744</v>
+      </c>
+      <c r="G30">
+        <v>135527</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>6</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32">
+        <v>35</v>
+      </c>
+      <c r="G32">
+        <v>15742</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" t="s">
+        <v>105</v>
+      </c>
+      <c r="F33">
+        <v>545</v>
+      </c>
+      <c r="G33">
+        <v>110308</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" t="s">
+        <v>111</v>
+      </c>
+      <c r="F34">
+        <v>97</v>
+      </c>
+      <c r="G34">
+        <v>15269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F35">
+        <v>416</v>
+      </c>
+      <c r="G35">
+        <v>40539</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
+      <c r="F37">
+        <v>1298</v>
+      </c>
+      <c r="G37">
+        <v>291907</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38">
+        <v>1563</v>
+      </c>
+      <c r="G38">
+        <v>410084</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>9</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" t="s">
+        <v>105</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42">
+        <v>4955</v>
+      </c>
+      <c r="G42">
+        <v>445751</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" t="s">
+        <v>113</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44">
+        <v>283</v>
+      </c>
+      <c r="G44">
+        <v>101829</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>71</v>
+      </c>
+      <c r="E45" t="s">
+        <v>111</v>
+      </c>
+      <c r="F45">
+        <v>7431</v>
+      </c>
+      <c r="G45">
+        <v>284310</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
+      </c>
+      <c r="E46" t="s">
+        <v>122</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C47">
         <v>46</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>9</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" t="s">
+        <v>124</v>
+      </c>
+      <c r="F48">
+        <v>287</v>
+      </c>
+      <c r="G48">
+        <v>51634</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>9</v>
+      </c>
+      <c r="B49" t="s">
+        <v>15</v>
+      </c>
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>75</v>
+      </c>
+      <c r="E49" t="s">
+        <v>125</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" t="s">
+        <v>126</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>9</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>77</v>
+      </c>
+      <c r="E51" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51">
+        <v>2719</v>
+      </c>
+      <c r="G51">
+        <v>1100651</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>9</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F52">
+        <v>2531</v>
+      </c>
+      <c r="G52">
+        <v>948644</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>9</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>79</v>
+      </c>
+      <c r="E53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53">
+        <v>52376</v>
+      </c>
+      <c r="G53">
+        <v>23557153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>9</v>
+      </c>
+      <c r="B54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54">
+        <v>8174</v>
+      </c>
+      <c r="G54">
+        <v>1838250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
+        <v>10</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>81</v>
+      </c>
+      <c r="E55" t="s">
+        <v>111</v>
+      </c>
+      <c r="F55">
+        <v>5703</v>
+      </c>
+      <c r="G55">
+        <v>769505</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56">
+        <v>10</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" t="s">
+        <v>111</v>
+      </c>
+      <c r="F56">
+        <v>16391</v>
+      </c>
+      <c r="G56">
+        <v>1228669</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>17</v>
+      </c>
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>83</v>
+      </c>
+      <c r="E57" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57">
+        <v>1341</v>
+      </c>
+      <c r="G57">
+        <v>140737</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>84</v>
+      </c>
+      <c r="E58" t="s">
+        <v>111</v>
+      </c>
+      <c r="F58">
+        <v>86</v>
+      </c>
+      <c r="G58">
+        <v>14183</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>85</v>
+      </c>
+      <c r="E59" t="s">
+        <v>129</v>
+      </c>
+      <c r="F59">
+        <v>2706</v>
+      </c>
+      <c r="G59">
+        <v>101420</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60">
+        <v>2936</v>
+      </c>
+      <c r="G60">
+        <v>880359</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61">
+        <v>13</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" t="s">
+        <v>111</v>
+      </c>
+      <c r="F61">
+        <v>964</v>
+      </c>
+      <c r="G61">
+        <v>144532</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62" t="s">
+        <v>116</v>
+      </c>
+      <c r="F62">
+        <v>2728</v>
+      </c>
+      <c r="G62">
+        <v>122705</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63">
+        <v>15</v>
+      </c>
+      <c r="B63" t="s">
+        <v>21</v>
+      </c>
+      <c r="C63">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>89</v>
+      </c>
+      <c r="E63" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63">
+        <v>63</v>
+      </c>
+      <c r="G63">
+        <v>13223</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64">
+        <v>15</v>
+      </c>
+      <c r="B64" t="s">
+        <v>21</v>
+      </c>
+      <c r="C64">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>90</v>
+      </c>
+      <c r="E64" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64">
+        <v>254</v>
+      </c>
+      <c r="G64">
+        <v>38079</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65">
+        <v>16</v>
+      </c>
+      <c r="B65" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>91</v>
+      </c>
+      <c r="E65" t="s">
+        <v>132</v>
+      </c>
+      <c r="F65">
+        <v>1830</v>
+      </c>
+      <c r="G65">
+        <v>68588</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66">
+        <v>17</v>
+      </c>
+      <c r="B66" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" t="s">
+        <v>133</v>
+      </c>
+      <c r="F66">
+        <v>2675</v>
+      </c>
+      <c r="G66">
+        <v>701839</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67">
         <v>66</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
+      <c r="D67" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" t="s">
+        <v>106</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>24</v>
+      </c>
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68" t="s">
+        <v>116</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69">
+        <v>18</v>
+      </c>
+      <c r="B69" t="s">
+        <v>24</v>
+      </c>
+      <c r="C69">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69">
+        <v>628</v>
+      </c>
+      <c r="G69">
+        <v>42371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70">
+        <v>69</v>
+      </c>
+      <c r="D70" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70">
+        <v>212</v>
+      </c>
+      <c r="G70">
+        <v>11918</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71">
+        <v>20</v>
+      </c>
+      <c r="B71" t="s">
+        <v>26</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" t="s">
+        <v>128</v>
+      </c>
+      <c r="F71">
+        <v>2969</v>
+      </c>
+      <c r="G71">
+        <v>66772</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72">
+        <v>21</v>
+      </c>
+      <c r="B72" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72">
+        <v>71</v>
+      </c>
+      <c r="D72" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" t="s">
+        <v>111</v>
+      </c>
+      <c r="F72">
+        <v>1699</v>
+      </c>
+      <c r="G72">
+        <v>82792</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>99</v>
+      </c>
+      <c r="E73" t="s">
+        <v>128</v>
+      </c>
+      <c r="F73">
+        <v>332</v>
+      </c>
+      <c r="G73">
+        <v>12443</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74">
+        <v>21</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s">
+        <v>100</v>
+      </c>
+      <c r="E74" t="s">
+        <v>111</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75">
+        <v>21</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>101</v>
+      </c>
+      <c r="E75" t="s">
+        <v>111</v>
+      </c>
+      <c r="F75">
+        <v>709</v>
+      </c>
+      <c r="G75">
+        <v>63781</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76">
+        <v>21</v>
+      </c>
+      <c r="B76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76" t="s">
+        <v>102</v>
+      </c>
+      <c r="E76" t="s">
+        <v>128</v>
+      </c>
+      <c r="F76">
+        <v>7580</v>
+      </c>
+      <c r="G76">
+        <v>397722</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>27</v>
+      </c>
+      <c r="C77">
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>103</v>
+      </c>
+      <c r="E77" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77">
+        <v>229</v>
+      </c>
+      <c r="G77">
+        <v>7724</v>
       </c>
     </row>
   </sheetData>

--- a/Data/NoStock_last_three_month_copy.xlsx
+++ b/Data/NoStock_last_three_month_copy.xlsx
@@ -103,87 +103,87 @@
     <t>Cortider 10gm Cream</t>
   </si>
   <si>
+    <t>Esoral 20mg Capsule 50's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet  80's</t>
+  </si>
+  <si>
+    <t>Esoral Injection &amp; Capsule 20</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule Container 30's</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Tablet - 50's</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Esoral 40mg EC Tablet - 42's</t>
+  </si>
+  <si>
+    <t>Esoral Mups 40 Tablet</t>
+  </si>
+  <si>
+    <t>Esoral 40mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Esoral 40mg IV Injection</t>
+  </si>
+  <si>
+    <t>Esoral 20mg Capsule 100's</t>
+  </si>
+  <si>
     <t>Esoral 40mg Capsule - 30's</t>
   </si>
   <si>
+    <t>Esoral 20mg Tablet 112's</t>
+  </si>
+  <si>
     <t>Esoral MUPS 20mg Tab 50s</t>
   </si>
   <si>
-    <t>Esoral Mups 40 Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule Container 30's</t>
-  </si>
-  <si>
-    <t>Esoral Injection &amp; Capsule 20</t>
-  </si>
-  <si>
-    <t>Esoral 40mg EC Tablet - 42's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 50's</t>
+    <t>Esoral 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Esoral 20mg  Tablet 100's</t>
   </si>
   <si>
     <t>Esoral 20mg Capsule 60's</t>
   </si>
   <si>
-    <t>Esoral 20mg Capsule 100's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg  Tablet 100's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Tablet - 30's</t>
-  </si>
-  <si>
     <t>Esoral Injection &amp; MUPS 20</t>
   </si>
   <si>
-    <t>Esoral 40mg IV Injection</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet  80's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet - 50's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet 112's</t>
-  </si>
-  <si>
     <t>Etriam 10gm Cream</t>
   </si>
   <si>
+    <t>Facid 10gm BT Cream</t>
+  </si>
+  <si>
+    <t>Facid 15gm Cream</t>
+  </si>
+  <si>
+    <t>Facid 15gm Ointment</t>
+  </si>
+  <si>
     <t>Facid 250mg Tablet 10's</t>
   </si>
   <si>
-    <t>Facid 15gm Cream</t>
-  </si>
-  <si>
-    <t>Facid 15gm Ointment</t>
-  </si>
-  <si>
     <t>Facid HC Cream</t>
   </si>
   <si>
-    <t>Facid 10gm BT Cream</t>
+    <t>Flucoder 150mg Capsule</t>
+  </si>
+  <si>
+    <t>Flucoder 200mg Capsule - 10's</t>
   </si>
   <si>
     <t>Flucoder 35ml Dry Suspension</t>
   </si>
   <si>
-    <t>Flucoder 200mg Capsule - 10's</t>
-  </si>
-  <si>
-    <t>Flucoder 150mg Capsule</t>
-  </si>
-  <si>
     <t>Flucoder 50mg Capsule</t>
   </si>
   <si>
@@ -202,102 +202,102 @@
     <t>Licnil 60gm Lotion</t>
   </si>
   <si>
+    <t>Losectil 40mg Capsule (24's)</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
+  </si>
+  <si>
+    <t>Losectil 10mg Capsule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Losectil DR Tablet </t>
+  </si>
+  <si>
     <t>Losectil 40mg Powder for Oral Suspension</t>
   </si>
   <si>
+    <t>Losectil 20mg Powder for Oral Suspension</t>
+  </si>
+  <si>
     <t>Losectil 40mg Powder for Oral Suspension - 30's</t>
   </si>
   <si>
+    <t>Losectil Mups 40mg Tablet</t>
+  </si>
+  <si>
+    <t>Losectil 20mg Capsule 120's</t>
+  </si>
+  <si>
     <t>Losectil MUPS 20mg Tablet</t>
   </si>
   <si>
-    <t>Losectil 40mg Capsule (24's)</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
+    <t>Losectil V 40mg Capsule</t>
+  </si>
+  <si>
+    <t>Losectil 40mg IV Injection</t>
+  </si>
+  <si>
+    <t>Losectil 40mg Capsule - 48's</t>
+  </si>
+  <si>
+    <t>Losectil 20mg PFS 50's</t>
+  </si>
+  <si>
+    <t>Losectil V 20mg Capsule</t>
   </si>
   <si>
     <t>Losectil 20mg Capsule (100's)</t>
   </si>
   <si>
+    <t>Losectil 20mg Capsule 500s</t>
+  </si>
+  <si>
     <t>Losectil 10mg Capsule 60's</t>
   </si>
   <si>
-    <t>Losectil 20mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil V 40mg Capsule</t>
-  </si>
-  <si>
-    <t>Losectil 40mg IV Injection</t>
-  </si>
-  <si>
-    <t>Losectil 10mg Capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losectil DR Tablet </t>
-  </si>
-  <si>
-    <t>Losectil Mups 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule 500s</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule - 48's</t>
-  </si>
-  <si>
     <t>Losectil 40mg Capsule 60's</t>
   </si>
   <si>
-    <t>Losectil V 20mg Capsule</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule 120's</t>
-  </si>
-  <si>
-    <t>Losectil 20mg PFS 50's</t>
-  </si>
-  <si>
     <t>Lulizol 20gm Cream</t>
   </si>
   <si>
     <t>Lulizol 10gm Cream</t>
   </si>
   <si>
+    <t>Mupiron 20gm Ointment</t>
+  </si>
+  <si>
     <t>Mupiron 10gm Ointment</t>
   </si>
   <si>
-    <t>Mupiron 20gm Ointment</t>
+    <t>Mycofin 250mg Tablet</t>
   </si>
   <si>
     <t>Mycofin 5gm Cream</t>
   </si>
   <si>
-    <t>Mycofin 250mg Tablet</t>
-  </si>
-  <si>
     <t>Nospot 30gm Cream</t>
   </si>
   <si>
     <t>Orogurd 15gm Oral Gel</t>
   </si>
   <si>
+    <t>Panoral 20mg Tablet</t>
+  </si>
+  <si>
     <t>Panoral 40mg Tablet</t>
   </si>
   <si>
-    <t>Panoral 20mg Tablet</t>
-  </si>
-  <si>
     <t>Perosa 30gm Cream</t>
   </si>
   <si>
+    <t>Rabifast 20mg Tablet - 50's</t>
+  </si>
+  <si>
     <t>Rabifast 20 mg Tablet</t>
   </si>
   <si>
-    <t>Rabifast 20mg Tablet - 50's</t>
-  </si>
-  <si>
     <t>Softi Ointment 15gm</t>
   </si>
   <si>
@@ -310,106 +310,106 @@
     <t>Topibet CL 10gm Ointment</t>
   </si>
   <si>
+    <t>Topiclo S 6% 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo 10gm Ointment</t>
+  </si>
+  <si>
+    <t>Topiclo 10gm Cream</t>
+  </si>
+  <si>
+    <t>Topiclo S Ointment 1's 20g</t>
+  </si>
+  <si>
+    <t>Topiclo S 10gm Ointment</t>
+  </si>
+  <si>
     <t>Topiclo NN 15gm Ointment</t>
   </si>
   <si>
-    <t>Topiclo 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Topiclo S 6% 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Topiclo S Ointment 1's 20g</t>
-  </si>
-  <si>
-    <t>Topiclo S 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Topiclo 10gm Cream</t>
-  </si>
-  <si>
     <t>10 gm</t>
   </si>
   <si>
+    <t>50's</t>
+  </si>
+  <si>
+    <t>80's</t>
+  </si>
+  <si>
+    <t>Bundle</t>
+  </si>
+  <si>
     <t>30's</t>
   </si>
   <si>
-    <t>50's</t>
-  </si>
-  <si>
-    <t>Bundle</t>
+    <t>20's</t>
   </si>
   <si>
     <t>42's</t>
   </si>
   <si>
+    <t>1's</t>
+  </si>
+  <si>
+    <t>100's</t>
+  </si>
+  <si>
+    <t>112's</t>
+  </si>
+  <si>
     <t>60's</t>
   </si>
   <si>
-    <t>100's</t>
-  </si>
-  <si>
-    <t>1's</t>
-  </si>
-  <si>
-    <t>80's</t>
-  </si>
-  <si>
-    <t>20's</t>
-  </si>
-  <si>
-    <t>112's</t>
+    <t>15gm</t>
   </si>
   <si>
     <t>10's</t>
   </si>
   <si>
-    <t>15gm</t>
+    <t>10 's</t>
   </si>
   <si>
     <t>35ml</t>
   </si>
   <si>
-    <t>10 's</t>
-  </si>
-  <si>
     <t>30 's</t>
   </si>
   <si>
     <t>24 's</t>
   </si>
   <si>
+    <t>48 's</t>
+  </si>
+  <si>
+    <t>60 's</t>
+  </si>
+  <si>
+    <t>24's</t>
+  </si>
+  <si>
+    <t>120's</t>
+  </si>
+  <si>
+    <t>48's</t>
+  </si>
+  <si>
     <t>100 's</t>
   </si>
   <si>
-    <t>48 's</t>
-  </si>
-  <si>
-    <t>60 's</t>
-  </si>
-  <si>
-    <t>24's</t>
-  </si>
-  <si>
     <t>500's</t>
   </si>
   <si>
-    <t>48's</t>
-  </si>
-  <si>
-    <t>120's</t>
-  </si>
-  <si>
     <t>10gm</t>
   </si>
   <si>
     <t>5gm</t>
   </si>
   <si>
+    <t>40 's</t>
+  </si>
+  <si>
     <t>40's</t>
-  </si>
-  <si>
-    <t>40 's</t>
   </si>
   <si>
     <t>30 gm</t>
@@ -812,7 +812,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -827,15 +827,15 @@
         <v>104</v>
       </c>
       <c r="F2">
-        <v>450</v>
+        <v>1161</v>
       </c>
       <c r="G2">
-        <v>11808</v>
+        <v>30464</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -850,15 +850,15 @@
         <v>105</v>
       </c>
       <c r="F3">
-        <v>4742</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1066428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -873,15 +873,15 @@
         <v>106</v>
       </c>
       <c r="F4">
-        <v>12825</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>4807066</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -893,18 +893,18 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F5">
-        <v>1871</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>589065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -916,7 +916,7 @@
         <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
@@ -939,7 +939,7 @@
         <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -950,7 +950,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -962,7 +962,7 @@
         <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -973,7 +973,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -985,7 +985,7 @@
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
@@ -1008,18 +1008,18 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>5162</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1625204</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1031,18 +1031,18 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F11">
-        <v>7800</v>
+        <v>4221</v>
       </c>
       <c r="G11">
-        <v>4092972</v>
+        <v>759400</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1054,18 +1054,18 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>51100</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1955086</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
@@ -1077,18 +1077,18 @@
         <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F13">
-        <v>1678</v>
+        <v>21275</v>
       </c>
       <c r="G13">
-        <v>301888</v>
+        <v>11163843</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1100,18 +1100,18 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>13082</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2942010</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1123,18 +1123,18 @@
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F15">
-        <v>23262</v>
+        <v>22459</v>
       </c>
       <c r="G15">
-        <v>890004</v>
+        <v>9428063</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
@@ -1146,18 +1146,18 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>40322</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>15113492</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1169,7 +1169,7 @@
         <v>43</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1180,7 +1180,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1192,7 +1192,7 @@
         <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
@@ -1215,7 +1215,7 @@
         <v>45</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -1238,18 +1238,18 @@
         <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="F20">
-        <v>8060</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>3383507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>9</v>
@@ -1264,15 +1264,15 @@
         <v>111</v>
       </c>
       <c r="F21">
-        <v>14822</v>
+        <v>36775</v>
       </c>
       <c r="G21">
-        <v>444511</v>
+        <v>1102882</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
         <v>10</v>
@@ -1284,18 +1284,18 @@
         <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F22">
-        <v>1406</v>
+        <v>10467</v>
       </c>
       <c r="G22">
-        <v>685087</v>
+        <v>1333914</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s">
         <v>10</v>
@@ -1307,18 +1307,18 @@
         <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F23">
-        <v>2839</v>
+        <v>8243</v>
       </c>
       <c r="G23">
-        <v>191547</v>
+        <v>556155</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -1330,18 +1330,18 @@
         <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F24">
-        <v>656</v>
+        <v>1786</v>
       </c>
       <c r="G24">
-        <v>44260</v>
+        <v>120501</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s">
         <v>10</v>
@@ -1353,18 +1353,18 @@
         <v>51</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F25">
-        <v>3852</v>
+        <v>4232</v>
       </c>
       <c r="G25">
-        <v>360932</v>
+        <v>2062084</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1379,15 +1379,15 @@
         <v>104</v>
       </c>
       <c r="F26">
-        <v>3788</v>
+        <v>10164</v>
       </c>
       <c r="G26">
-        <v>482742</v>
+        <v>952366</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
         <v>11</v>
@@ -1402,15 +1402,15 @@
         <v>117</v>
       </c>
       <c r="F27">
-        <v>527</v>
+        <v>693</v>
       </c>
       <c r="G27">
-        <v>30813</v>
+        <v>114289</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B28" t="s">
         <v>11</v>
@@ -1422,18 +1422,18 @@
         <v>54</v>
       </c>
       <c r="E28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F28">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="G28">
-        <v>13868</v>
+        <v>48726</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
         <v>11</v>
@@ -1448,15 +1448,15 @@
         <v>118</v>
       </c>
       <c r="F29">
-        <v>221</v>
+        <v>1301</v>
       </c>
       <c r="G29">
-        <v>36447</v>
+        <v>76069</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B30" t="s">
         <v>11</v>
@@ -1471,15 +1471,15 @@
         <v>119</v>
       </c>
       <c r="F30">
-        <v>744</v>
+        <v>2018</v>
       </c>
       <c r="G30">
-        <v>135527</v>
+        <v>367598</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -1517,15 +1517,15 @@
         <v>111</v>
       </c>
       <c r="F32">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="G32">
-        <v>15742</v>
+        <v>35982</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>7</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -1537,18 +1537,18 @@
         <v>59</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F33">
-        <v>545</v>
+        <v>1533</v>
       </c>
       <c r="G33">
-        <v>110308</v>
+        <v>310279</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
         <v>14</v>
@@ -1563,15 +1563,15 @@
         <v>111</v>
       </c>
       <c r="F34">
-        <v>97</v>
+        <v>297</v>
       </c>
       <c r="G34">
-        <v>15269</v>
+        <v>46753</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="B35" t="s">
         <v>14</v>
@@ -1586,15 +1586,15 @@
         <v>111</v>
       </c>
       <c r="F35">
-        <v>416</v>
+        <v>1184</v>
       </c>
       <c r="G35">
-        <v>40539</v>
+        <v>115380</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B36" t="s">
         <v>15</v>
@@ -1606,7 +1606,7 @@
         <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B37" t="s">
         <v>15</v>
@@ -1629,18 +1629,18 @@
         <v>63</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F37">
-        <v>1298</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>291907</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
         <v>15</v>
@@ -1652,18 +1652,18 @@
         <v>64</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="F38">
-        <v>1563</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>410084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B39" t="s">
         <v>15</v>
@@ -1675,7 +1675,7 @@
         <v>65</v>
       </c>
       <c r="E39" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B40" t="s">
         <v>15</v>
@@ -1698,7 +1698,7 @@
         <v>66</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
         <v>15</v>
@@ -1721,7 +1721,7 @@
         <v>67</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
         <v>15</v>
@@ -1744,18 +1744,18 @@
         <v>68</v>
       </c>
       <c r="E42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F42">
-        <v>4955</v>
+        <v>3661</v>
       </c>
       <c r="G42">
-        <v>445751</v>
+        <v>823322</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
@@ -1767,18 +1767,18 @@
         <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>776</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>139610</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B44" t="s">
         <v>15</v>
@@ -1790,18 +1790,18 @@
         <v>70</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F44">
-        <v>283</v>
+        <v>166775</v>
       </c>
       <c r="G44">
-        <v>101829</v>
+        <v>75010391</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
         <v>15</v>
@@ -1813,18 +1813,18 @@
         <v>71</v>
       </c>
       <c r="E45" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="F45">
-        <v>7431</v>
+        <v>4330</v>
       </c>
       <c r="G45">
-        <v>284310</v>
+        <v>1136062</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
         <v>15</v>
@@ -1836,18 +1836,18 @@
         <v>72</v>
       </c>
       <c r="E46" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>808</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>290734</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B47" t="s">
         <v>15</v>
@@ -1859,18 +1859,18 @@
         <v>73</v>
       </c>
       <c r="E47" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>18807</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>719555</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B48" t="s">
         <v>15</v>
@@ -1882,18 +1882,18 @@
         <v>74</v>
       </c>
       <c r="E48" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F48">
-        <v>287</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>51634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B49" t="s">
         <v>15</v>
@@ -1905,18 +1905,18 @@
         <v>75</v>
       </c>
       <c r="E49" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>20492</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>4608445</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B50" t="s">
         <v>15</v>
@@ -1928,18 +1928,18 @@
         <v>76</v>
       </c>
       <c r="E50" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>7170</v>
       </c>
       <c r="G50">
-        <v>0</v>
+        <v>2687387</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B51" t="s">
         <v>15</v>
@@ -1951,18 +1951,18 @@
         <v>77</v>
       </c>
       <c r="E51" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="F51">
-        <v>2719</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>1100651</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B52" t="s">
         <v>15</v>
@@ -1974,18 +1974,18 @@
         <v>78</v>
       </c>
       <c r="E52" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="F52">
-        <v>2531</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>948644</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7">
       <c r="A53">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
@@ -1997,18 +1997,18 @@
         <v>79</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="F53">
-        <v>52376</v>
+        <v>13138</v>
       </c>
       <c r="G53">
-        <v>23557153</v>
+        <v>1181894</v>
       </c>
     </row>
     <row r="54" spans="1:7">
       <c r="A54">
-        <v>9</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
@@ -2020,18 +2020,18 @@
         <v>80</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F54">
-        <v>8174</v>
+        <v>7232</v>
       </c>
       <c r="G54">
-        <v>1838250</v>
+        <v>2927513</v>
       </c>
     </row>
     <row r="55" spans="1:7">
       <c r="A55">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
@@ -2046,15 +2046,15 @@
         <v>111</v>
       </c>
       <c r="F55">
-        <v>5703</v>
+        <v>14624</v>
       </c>
       <c r="G55">
-        <v>769505</v>
+        <v>1973216</v>
       </c>
     </row>
     <row r="56" spans="1:7">
       <c r="A56">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
@@ -2069,15 +2069,15 @@
         <v>111</v>
       </c>
       <c r="F56">
-        <v>16391</v>
+        <v>47610</v>
       </c>
       <c r="G56">
-        <v>1228669</v>
+        <v>3568845</v>
       </c>
     </row>
     <row r="57" spans="1:7">
       <c r="A57">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B57" t="s">
         <v>17</v>
@@ -2089,18 +2089,18 @@
         <v>83</v>
       </c>
       <c r="E57" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="F57">
-        <v>1341</v>
+        <v>225</v>
       </c>
       <c r="G57">
-        <v>140737</v>
+        <v>37107</v>
       </c>
     </row>
     <row r="58" spans="1:7">
       <c r="A58">
-        <v>11</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
         <v>17</v>
@@ -2112,18 +2112,18 @@
         <v>84</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F58">
-        <v>86</v>
+        <v>3078</v>
       </c>
       <c r="G58">
-        <v>14183</v>
+        <v>323036</v>
       </c>
     </row>
     <row r="59" spans="1:7">
       <c r="A59">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
@@ -2135,18 +2135,18 @@
         <v>85</v>
       </c>
       <c r="E59" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F59">
-        <v>2706</v>
+        <v>8371</v>
       </c>
       <c r="G59">
-        <v>101420</v>
+        <v>2510044</v>
       </c>
     </row>
     <row r="60" spans="1:7">
       <c r="A60">
-        <v>12</v>
+        <v>113</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
@@ -2158,18 +2158,18 @@
         <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="F60">
-        <v>2936</v>
+        <v>7345</v>
       </c>
       <c r="G60">
-        <v>880359</v>
+        <v>275290</v>
       </c>
     </row>
     <row r="61" spans="1:7">
       <c r="A61">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="B61" t="s">
         <v>19</v>
@@ -2184,15 +2184,15 @@
         <v>111</v>
       </c>
       <c r="F61">
-        <v>964</v>
+        <v>2852</v>
       </c>
       <c r="G61">
-        <v>144532</v>
+        <v>427600</v>
       </c>
     </row>
     <row r="62" spans="1:7">
       <c r="A62">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
         <v>20</v>
@@ -2204,18 +2204,18 @@
         <v>88</v>
       </c>
       <c r="E62" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F62">
-        <v>2728</v>
+        <v>6269</v>
       </c>
       <c r="G62">
-        <v>122705</v>
+        <v>281979</v>
       </c>
     </row>
     <row r="63" spans="1:7">
       <c r="A63">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
         <v>21</v>
@@ -2230,15 +2230,15 @@
         <v>130</v>
       </c>
       <c r="F63">
-        <v>63</v>
+        <v>824</v>
       </c>
       <c r="G63">
-        <v>13223</v>
+        <v>123534</v>
       </c>
     </row>
     <row r="64" spans="1:7">
       <c r="A64">
-        <v>15</v>
+        <v>133</v>
       </c>
       <c r="B64" t="s">
         <v>21</v>
@@ -2253,15 +2253,15 @@
         <v>131</v>
       </c>
       <c r="F64">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="G64">
-        <v>38079</v>
+        <v>31904</v>
       </c>
     </row>
     <row r="65" spans="1:7">
       <c r="A65">
-        <v>16</v>
+        <v>134</v>
       </c>
       <c r="B65" t="s">
         <v>22</v>
@@ -2276,15 +2276,15 @@
         <v>132</v>
       </c>
       <c r="F65">
-        <v>1830</v>
+        <v>4425</v>
       </c>
       <c r="G65">
-        <v>68588</v>
+        <v>165849</v>
       </c>
     </row>
     <row r="66" spans="1:7">
       <c r="A66">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s">
         <v>23</v>
@@ -2296,18 +2296,18 @@
         <v>92</v>
       </c>
       <c r="E66" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="F66">
-        <v>2675</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>701839</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:7">
       <c r="A67">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
         <v>23</v>
@@ -2319,18 +2319,18 @@
         <v>93</v>
       </c>
       <c r="E67" t="s">
-        <v>106</v>
+        <v>133</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>7445</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>1953344</v>
       </c>
     </row>
     <row r="68" spans="1:7">
       <c r="A68">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="B68" t="s">
         <v>24</v>
@@ -2342,7 +2342,7 @@
         <v>94</v>
       </c>
       <c r="E68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -2353,7 +2353,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="B69" t="s">
         <v>24</v>
@@ -2368,15 +2368,15 @@
         <v>134</v>
       </c>
       <c r="F69">
-        <v>628</v>
+        <v>1948</v>
       </c>
       <c r="G69">
-        <v>42371</v>
+        <v>131431</v>
       </c>
     </row>
     <row r="70" spans="1:7">
       <c r="A70">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="B70" t="s">
         <v>25</v>
@@ -2391,15 +2391,15 @@
         <v>129</v>
       </c>
       <c r="F70">
-        <v>212</v>
+        <v>581</v>
       </c>
       <c r="G70">
-        <v>11918</v>
+        <v>32663</v>
       </c>
     </row>
     <row r="71" spans="1:7">
       <c r="A71">
-        <v>20</v>
+        <v>186</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -2414,15 +2414,15 @@
         <v>128</v>
       </c>
       <c r="F71">
-        <v>2969</v>
+        <v>9257</v>
       </c>
       <c r="G71">
-        <v>66772</v>
+        <v>208189</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B72" t="s">
         <v>27</v>
@@ -2437,15 +2437,15 @@
         <v>111</v>
       </c>
       <c r="F72">
-        <v>1699</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>82792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7">
       <c r="A73">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B73" t="s">
         <v>27</v>
@@ -2460,15 +2460,15 @@
         <v>128</v>
       </c>
       <c r="F73">
-        <v>332</v>
+        <v>996</v>
       </c>
       <c r="G73">
-        <v>12443</v>
+        <v>37330</v>
       </c>
     </row>
     <row r="74" spans="1:7">
       <c r="A74">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B74" t="s">
         <v>27</v>
@@ -2480,18 +2480,18 @@
         <v>100</v>
       </c>
       <c r="E74" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>24555</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B75" t="s">
         <v>27</v>
@@ -2506,15 +2506,15 @@
         <v>111</v>
       </c>
       <c r="F75">
-        <v>709</v>
+        <v>2031</v>
       </c>
       <c r="G75">
-        <v>63781</v>
+        <v>182708</v>
       </c>
     </row>
     <row r="76" spans="1:7">
       <c r="A76">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B76" t="s">
         <v>27</v>
@@ -2529,15 +2529,15 @@
         <v>128</v>
       </c>
       <c r="F76">
-        <v>7580</v>
+        <v>21014</v>
       </c>
       <c r="G76">
-        <v>397722</v>
+        <v>1102604</v>
       </c>
     </row>
     <row r="77" spans="1:7">
       <c r="A77">
-        <v>21</v>
+        <v>187</v>
       </c>
       <c r="B77" t="s">
         <v>27</v>
@@ -2549,13 +2549,13 @@
         <v>103</v>
       </c>
       <c r="E77" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="F77">
-        <v>229</v>
+        <v>4146</v>
       </c>
       <c r="G77">
-        <v>7724</v>
+        <v>202034</v>
       </c>
     </row>
   </sheetData>

--- a/Data/NoStock_last_three_month_copy.xlsx
+++ b/Data/NoStock_last_three_month_copy.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="90">
   <si>
     <t>BSL NO</t>
   </si>
@@ -37,388 +37,253 @@
     <t>Estimated Sales</t>
   </si>
   <si>
-    <t>Cortider</t>
-  </si>
-  <si>
-    <t>Esoral</t>
-  </si>
-  <si>
-    <t>ETRIAM</t>
-  </si>
-  <si>
-    <t>Facid</t>
-  </si>
-  <si>
-    <t>Flucoder</t>
-  </si>
-  <si>
-    <t>Hairgrow</t>
-  </si>
-  <si>
-    <t>Kezona</t>
-  </si>
-  <si>
-    <t>Licnil</t>
-  </si>
-  <si>
-    <t>Losectil</t>
-  </si>
-  <si>
-    <t>Lulizol</t>
-  </si>
-  <si>
-    <t>Mupiron</t>
-  </si>
-  <si>
-    <t>Mycofin</t>
-  </si>
-  <si>
-    <t>Nospot</t>
-  </si>
-  <si>
-    <t>Orogurd</t>
-  </si>
-  <si>
-    <t>Panoral</t>
-  </si>
-  <si>
-    <t>Perosa</t>
-  </si>
-  <si>
-    <t>Rabifast</t>
-  </si>
-  <si>
-    <t>Softi</t>
-  </si>
-  <si>
-    <t>Sorex</t>
-  </si>
-  <si>
-    <t>Topibet</t>
-  </si>
-  <si>
-    <t>Topiclo</t>
-  </si>
-  <si>
-    <t>Cortider 10gm Cream</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 50's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet  80's</t>
-  </si>
-  <si>
-    <t>Esoral Injection &amp; Capsule 20</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule Container 30's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet - 50's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 40mg EC Tablet - 42's</t>
-  </si>
-  <si>
-    <t>Esoral Mups 40 Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Tablet - 30's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg IV Injection</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 100's</t>
-  </si>
-  <si>
-    <t>Esoral 40mg Capsule - 30's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet 112's</t>
-  </si>
-  <si>
-    <t>Esoral MUPS 20mg Tab 50s</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Esoral 20mg  Tablet 100's</t>
-  </si>
-  <si>
-    <t>Esoral 20mg Capsule 60's</t>
-  </si>
-  <si>
-    <t>Esoral Injection &amp; MUPS 20</t>
-  </si>
-  <si>
-    <t>Etriam 10gm Cream</t>
-  </si>
-  <si>
-    <t>Facid 10gm BT Cream</t>
-  </si>
-  <si>
-    <t>Facid 15gm Cream</t>
-  </si>
-  <si>
-    <t>Facid 15gm Ointment</t>
-  </si>
-  <si>
-    <t>Facid 250mg Tablet 10's</t>
-  </si>
-  <si>
-    <t>Facid HC Cream</t>
-  </si>
-  <si>
-    <t>Flucoder 150mg Capsule</t>
-  </si>
-  <si>
-    <t>Flucoder 200mg Capsule - 10's</t>
-  </si>
-  <si>
-    <t>Flucoder 35ml Dry Suspension</t>
-  </si>
-  <si>
-    <t>Flucoder 50mg Capsule</t>
-  </si>
-  <si>
-    <t>Hairgrow 2% Topical Solution 60ml</t>
-  </si>
-  <si>
-    <t>Hairgrow 5% Topical Solution 60ml</t>
-  </si>
-  <si>
-    <t>Kezona 200mg Tablet 30's</t>
-  </si>
-  <si>
-    <t>Licnil 117gm Lotion</t>
-  </si>
-  <si>
-    <t>Licnil 60gm Lotion</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule (24's)</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension - 30's</t>
-  </si>
-  <si>
-    <t>Losectil 10mg Capsule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Losectil DR Tablet </t>
-  </si>
-  <si>
-    <t>Losectil 40mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Powder for Oral Suspension</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Powder for Oral Suspension - 30's</t>
-  </si>
-  <si>
-    <t>Losectil Mups 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule 120's</t>
-  </si>
-  <si>
-    <t>Losectil MUPS 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Losectil V 40mg Capsule</t>
-  </si>
-  <si>
-    <t>Losectil 40mg IV Injection</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule - 48's</t>
-  </si>
-  <si>
-    <t>Losectil 20mg PFS 50's</t>
-  </si>
-  <si>
-    <t>Losectil V 20mg Capsule</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule (100's)</t>
-  </si>
-  <si>
-    <t>Losectil 20mg Capsule 500s</t>
-  </si>
-  <si>
-    <t>Losectil 10mg Capsule 60's</t>
-  </si>
-  <si>
-    <t>Losectil 40mg Capsule 60's</t>
-  </si>
-  <si>
-    <t>Lulizol 20gm Cream</t>
-  </si>
-  <si>
-    <t>Lulizol 10gm Cream</t>
-  </si>
-  <si>
-    <t>Mupiron 20gm Ointment</t>
-  </si>
-  <si>
-    <t>Mupiron 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Mycofin 250mg Tablet</t>
-  </si>
-  <si>
-    <t>Mycofin 5gm Cream</t>
-  </si>
-  <si>
-    <t>Nospot 30gm Cream</t>
-  </si>
-  <si>
-    <t>Orogurd 15gm Oral Gel</t>
-  </si>
-  <si>
-    <t>Panoral 20mg Tablet</t>
-  </si>
-  <si>
-    <t>Panoral 40mg Tablet</t>
-  </si>
-  <si>
-    <t>Perosa 30gm Cream</t>
-  </si>
-  <si>
-    <t>Rabifast 20mg Tablet - 50's</t>
-  </si>
-  <si>
-    <t>Rabifast 20 mg Tablet</t>
-  </si>
-  <si>
-    <t>Softi Ointment 15gm</t>
-  </si>
-  <si>
-    <t>Softi Ointment 50gm</t>
-  </si>
-  <si>
-    <t>Sorex 5gm Oral Paste</t>
-  </si>
-  <si>
-    <t>Topibet CL 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Topiclo S 6% 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Topiclo 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Topiclo 10gm Cream</t>
-  </si>
-  <si>
-    <t>Topiclo S Ointment 1's 20g</t>
-  </si>
-  <si>
-    <t>Topiclo S 10gm Ointment</t>
-  </si>
-  <si>
-    <t>Topiclo NN 15gm Ointment</t>
-  </si>
-  <si>
-    <t>10 gm</t>
+    <t>Aldorin</t>
+  </si>
+  <si>
+    <t>Cardoneb</t>
+  </si>
+  <si>
+    <t>Cardovan</t>
+  </si>
+  <si>
+    <t>Creston</t>
+  </si>
+  <si>
+    <t>Dialon</t>
+  </si>
+  <si>
+    <t>Dietil</t>
+  </si>
+  <si>
+    <t>Emazid</t>
+  </si>
+  <si>
+    <t>GLIKAZID</t>
+  </si>
+  <si>
+    <t>Glunor</t>
+  </si>
+  <si>
+    <t>Irbes</t>
+  </si>
+  <si>
+    <t>Ligazid</t>
+  </si>
+  <si>
+    <t>Lipicon</t>
+  </si>
+  <si>
+    <t>Noficon</t>
+  </si>
+  <si>
+    <t>Pivasta</t>
+  </si>
+  <si>
+    <t>Sitazid</t>
+  </si>
+  <si>
+    <t>Vigamet</t>
+  </si>
+  <si>
+    <t>Vigatin</t>
+  </si>
+  <si>
+    <t>Virenta</t>
+  </si>
+  <si>
+    <t>Aldorin 50mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Aldorin 50mg Tablet - 24's</t>
+  </si>
+  <si>
+    <t>Cardoneb 5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardoneb 2.5 FC Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan Plus 80/12.5 Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan 160mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan 80mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Cardovan Plus 160/12.5 Tablet 30's</t>
+  </si>
+  <si>
+    <t>Creston 20mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Creston 5mg Tablet - 30's</t>
+  </si>
+  <si>
+    <t>Creston 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Dialon 3mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Dialon 2mg Tablet</t>
+  </si>
+  <si>
+    <t>Dialon 1mg Tablet</t>
+  </si>
+  <si>
+    <t>Dialon 4mg Tablet</t>
+  </si>
+  <si>
+    <t>Dietil 120mg Capsule</t>
+  </si>
+  <si>
+    <t>Emazid 25mg FC Tablet 10's</t>
+  </si>
+  <si>
+    <t>Emazid M FC Tablet 20's</t>
+  </si>
+  <si>
+    <t>Emazid 10mg FC Tablet 20's</t>
+  </si>
+  <si>
+    <t>Glikazid 80mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Glikazid 80mg Tablet 40's</t>
+  </si>
+  <si>
+    <t>Glikazid 30 MR Tablet 30's</t>
+  </si>
+  <si>
+    <t>Glikazid 60mg MR Tablet 20's</t>
+  </si>
+  <si>
+    <t>Glunor XR Tablet</t>
+  </si>
+  <si>
+    <t>Glunor 850mg Tablet</t>
+  </si>
+  <si>
+    <t>Glunor 500mg Tablet</t>
+  </si>
+  <si>
+    <t>Irbes 75mg Tablet</t>
+  </si>
+  <si>
+    <t>Irbes 150mg Tablet</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/850</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/1000</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Ligazid 5mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/500</t>
+  </si>
+  <si>
+    <t>Ligazid M 2.5/500mg Tablet 30's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet</t>
+  </si>
+  <si>
+    <t>Lipicon 20mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet Container 30's</t>
+  </si>
+  <si>
+    <t>Lipicon 20mg Tablet</t>
+  </si>
+  <si>
+    <t>Lipicon 40mg Tablet - 10's</t>
+  </si>
+  <si>
+    <t>Lipicon 10mg Tablet - 40's</t>
+  </si>
+  <si>
+    <t>Noficon 200mg Capsule</t>
+  </si>
+  <si>
+    <t>Pivasta 2mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Sitazid M 50/1000 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Sitazid 50mg Tablet 20's</t>
+  </si>
+  <si>
+    <t>Sitazid 100mg Tablet 10's</t>
+  </si>
+  <si>
+    <t>Sitazid M 50/500 Tablet 20's</t>
+  </si>
+  <si>
+    <t>Vigamet 50/500 Tablet 20'S</t>
+  </si>
+  <si>
+    <t>Vigamet 50/850 Tablet 18's</t>
+  </si>
+  <si>
+    <t>Vigatin 50mg Tablet - 20's</t>
+  </si>
+  <si>
+    <t>Virenta 0.5mg Tablet - 10's</t>
+  </si>
+  <si>
+    <t>30's</t>
+  </si>
+  <si>
+    <t>24's</t>
+  </si>
+  <si>
+    <t>10's</t>
+  </si>
+  <si>
+    <t>20's</t>
+  </si>
+  <si>
+    <t>20s</t>
+  </si>
+  <si>
+    <t>30 's</t>
+  </si>
+  <si>
+    <t>50 's</t>
+  </si>
+  <si>
+    <t>20'S</t>
+  </si>
+  <si>
+    <t>10 's</t>
+  </si>
+  <si>
+    <t>40's</t>
+  </si>
+  <si>
+    <t>18's</t>
   </si>
   <si>
     <t>50's</t>
   </si>
   <si>
-    <t>80's</t>
-  </si>
-  <si>
-    <t>Bundle</t>
-  </si>
-  <si>
-    <t>30's</t>
-  </si>
-  <si>
-    <t>20's</t>
-  </si>
-  <si>
-    <t>42's</t>
-  </si>
-  <si>
-    <t>1's</t>
-  </si>
-  <si>
-    <t>100's</t>
-  </si>
-  <si>
-    <t>112's</t>
-  </si>
-  <si>
-    <t>60's</t>
-  </si>
-  <si>
-    <t>15gm</t>
-  </si>
-  <si>
-    <t>10's</t>
-  </si>
-  <si>
-    <t>10 's</t>
-  </si>
-  <si>
-    <t>35ml</t>
-  </si>
-  <si>
-    <t>30 's</t>
-  </si>
-  <si>
-    <t>24 's</t>
-  </si>
-  <si>
-    <t>48 's</t>
-  </si>
-  <si>
-    <t>60 's</t>
-  </si>
-  <si>
-    <t>24's</t>
-  </si>
-  <si>
-    <t>120's</t>
-  </si>
-  <si>
-    <t>48's</t>
-  </si>
-  <si>
-    <t>100 's</t>
-  </si>
-  <si>
-    <t>500's</t>
-  </si>
-  <si>
-    <t>10gm</t>
-  </si>
-  <si>
-    <t>5gm</t>
+    <t>20 's</t>
   </si>
   <si>
     <t>40 's</t>
-  </si>
-  <si>
-    <t>40's</t>
-  </si>
-  <si>
-    <t>30 gm</t>
-  </si>
-  <si>
-    <t>70's</t>
-  </si>
-  <si>
-    <t>50gm</t>
   </si>
 </sst>
 </file>
@@ -776,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G77"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -812,7 +677,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -821,33 +686,33 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="F2">
-        <v>1161</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>30464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -858,7 +723,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -867,10 +732,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -881,7 +746,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -890,10 +755,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -904,19 +769,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -927,19 +792,19 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -950,19 +815,19 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -973,19 +838,19 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -996,180 +861,180 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="F10">
-        <v>5162</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>1625204</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="F11">
-        <v>4221</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>759400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="F12">
-        <v>51100</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>1955086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="F13">
-        <v>21275</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>11163843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E14" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="F14">
-        <v>13082</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>2942010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="F15">
-        <v>22459</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>9428063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="F16">
-        <v>40322</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>15113492</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1180,19 +1045,19 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>112</v>
+        <v>78</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1203,19 +1068,19 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1226,19 +1091,19 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1249,249 +1114,249 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="F21">
-        <v>36775</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1102882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="F22">
-        <v>10467</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>1333914</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="F23">
-        <v>8243</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>556155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="F24">
-        <v>1786</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>120501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="F25">
-        <v>4232</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>2062084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="F26">
-        <v>10164</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>952366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E27" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="F27">
-        <v>693</v>
+        <v>0</v>
       </c>
       <c r="G27">
-        <v>114289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="F28">
-        <v>260</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>48726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="F29">
-        <v>1301</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>76069</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C30">
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="F30">
-        <v>2018</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>367598</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C31">
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>86</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -1502,111 +1367,111 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C32">
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="F32">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>35982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="F33">
-        <v>1533</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>310279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C34">
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="F34">
-        <v>297</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>46753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C35">
         <v>34</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="F35">
-        <v>1184</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>115380</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C36">
         <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>120</v>
+        <v>76</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -1617,19 +1482,19 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -1640,19 +1505,19 @@
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C38">
         <v>37</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -1663,19 +1528,19 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C39">
         <v>38</v>
       </c>
       <c r="D39" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -1686,19 +1551,19 @@
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C40">
         <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E40" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -1709,19 +1574,19 @@
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C41">
         <v>40</v>
       </c>
       <c r="D41" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -1732,157 +1597,157 @@
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C42">
         <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="F42">
-        <v>3661</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>823322</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C43">
         <v>42</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E43" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="F43">
-        <v>776</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>139610</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B44" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C44">
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E44" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="F44">
-        <v>166775</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>75010391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C45">
         <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="F45">
-        <v>4330</v>
+        <v>0</v>
       </c>
       <c r="G45">
-        <v>1136062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C46">
         <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E46" t="s">
-        <v>114</v>
+        <v>79</v>
       </c>
       <c r="F46">
-        <v>808</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>290734</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C47">
         <v>46</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E47" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="F47">
-        <v>18807</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>719555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="B48" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C48">
         <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>79</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -1893,65 +1758,65 @@
     </row>
     <row r="49" spans="1:7">
       <c r="A49">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C49">
         <v>48</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E49" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="F49">
-        <v>20492</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>4608445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7">
       <c r="A50">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="B50" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C50">
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E50" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="F50">
-        <v>7170</v>
+        <v>0</v>
       </c>
       <c r="G50">
-        <v>2687387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:7">
       <c r="A51">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C51">
         <v>50</v>
       </c>
       <c r="D51" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>126</v>
+        <v>79</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -1962,600 +1827,25 @@
     </row>
     <row r="52" spans="1:7">
       <c r="A52">
-        <v>96</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C52">
         <v>51</v>
       </c>
       <c r="D52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" t="s">
         <v>78</v>
       </c>
-      <c r="E52" t="s">
-        <v>127</v>
-      </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
         <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53">
-        <v>96</v>
-      </c>
-      <c r="B53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C53">
-        <v>52</v>
-      </c>
-      <c r="D53" t="s">
-        <v>79</v>
-      </c>
-      <c r="E53" t="s">
-        <v>114</v>
-      </c>
-      <c r="F53">
-        <v>13138</v>
-      </c>
-      <c r="G53">
-        <v>1181894</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54">
-        <v>96</v>
-      </c>
-      <c r="B54" t="s">
-        <v>15</v>
-      </c>
-      <c r="C54">
-        <v>53</v>
-      </c>
-      <c r="D54" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" t="s">
-        <v>114</v>
-      </c>
-      <c r="F54">
-        <v>7232</v>
-      </c>
-      <c r="G54">
-        <v>2927513</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55">
-        <v>99</v>
-      </c>
-      <c r="B55" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55">
-        <v>54</v>
-      </c>
-      <c r="D55" t="s">
-        <v>81</v>
-      </c>
-      <c r="E55" t="s">
-        <v>111</v>
-      </c>
-      <c r="F55">
-        <v>14624</v>
-      </c>
-      <c r="G55">
-        <v>1973216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56">
-        <v>99</v>
-      </c>
-      <c r="B56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56">
-        <v>55</v>
-      </c>
-      <c r="D56" t="s">
-        <v>82</v>
-      </c>
-      <c r="E56" t="s">
-        <v>111</v>
-      </c>
-      <c r="F56">
-        <v>47610</v>
-      </c>
-      <c r="G56">
-        <v>3568845</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
-        <v>112</v>
-      </c>
-      <c r="B57" t="s">
-        <v>17</v>
-      </c>
-      <c r="C57">
-        <v>56</v>
-      </c>
-      <c r="D57" t="s">
-        <v>83</v>
-      </c>
-      <c r="E57" t="s">
-        <v>111</v>
-      </c>
-      <c r="F57">
-        <v>225</v>
-      </c>
-      <c r="G57">
-        <v>37107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
-        <v>112</v>
-      </c>
-      <c r="B58" t="s">
-        <v>17</v>
-      </c>
-      <c r="C58">
-        <v>57</v>
-      </c>
-      <c r="D58" t="s">
-        <v>84</v>
-      </c>
-      <c r="E58" t="s">
-        <v>128</v>
-      </c>
-      <c r="F58">
-        <v>3078</v>
-      </c>
-      <c r="G58">
-        <v>323036</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
-        <v>113</v>
-      </c>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="C59">
-        <v>58</v>
-      </c>
-      <c r="D59" t="s">
-        <v>85</v>
-      </c>
-      <c r="E59" t="s">
-        <v>117</v>
-      </c>
-      <c r="F59">
-        <v>8371</v>
-      </c>
-      <c r="G59">
-        <v>2510044</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
-        <v>113</v>
-      </c>
-      <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="C60">
-        <v>59</v>
-      </c>
-      <c r="D60" t="s">
-        <v>86</v>
-      </c>
-      <c r="E60" t="s">
-        <v>129</v>
-      </c>
-      <c r="F60">
-        <v>7345</v>
-      </c>
-      <c r="G60">
-        <v>275290</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61">
-        <v>121</v>
-      </c>
-      <c r="B61" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61">
-        <v>60</v>
-      </c>
-      <c r="D61" t="s">
-        <v>87</v>
-      </c>
-      <c r="E61" t="s">
-        <v>111</v>
-      </c>
-      <c r="F61">
-        <v>2852</v>
-      </c>
-      <c r="G61">
-        <v>427600</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62">
-        <v>127</v>
-      </c>
-      <c r="B62" t="s">
-        <v>20</v>
-      </c>
-      <c r="C62">
-        <v>61</v>
-      </c>
-      <c r="D62" t="s">
-        <v>88</v>
-      </c>
-      <c r="E62" t="s">
-        <v>115</v>
-      </c>
-      <c r="F62">
-        <v>6269</v>
-      </c>
-      <c r="G62">
-        <v>281979</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63">
-        <v>133</v>
-      </c>
-      <c r="B63" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63">
-        <v>62</v>
-      </c>
-      <c r="D63" t="s">
-        <v>89</v>
-      </c>
-      <c r="E63" t="s">
-        <v>130</v>
-      </c>
-      <c r="F63">
-        <v>824</v>
-      </c>
-      <c r="G63">
-        <v>123534</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64">
-        <v>133</v>
-      </c>
-      <c r="B64" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64">
-        <v>63</v>
-      </c>
-      <c r="D64" t="s">
-        <v>90</v>
-      </c>
-      <c r="E64" t="s">
-        <v>131</v>
-      </c>
-      <c r="F64">
-        <v>152</v>
-      </c>
-      <c r="G64">
-        <v>31904</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65">
-        <v>134</v>
-      </c>
-      <c r="B65" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65">
-        <v>64</v>
-      </c>
-      <c r="D65" t="s">
-        <v>91</v>
-      </c>
-      <c r="E65" t="s">
-        <v>132</v>
-      </c>
-      <c r="F65">
-        <v>4425</v>
-      </c>
-      <c r="G65">
-        <v>165849</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66">
-        <v>143</v>
-      </c>
-      <c r="B66" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66">
-        <v>65</v>
-      </c>
-      <c r="D66" t="s">
-        <v>92</v>
-      </c>
-      <c r="E66" t="s">
-        <v>105</v>
-      </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67">
-        <v>143</v>
-      </c>
-      <c r="B67" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67">
-        <v>66</v>
-      </c>
-      <c r="D67" t="s">
-        <v>93</v>
-      </c>
-      <c r="E67" t="s">
-        <v>133</v>
-      </c>
-      <c r="F67">
-        <v>7445</v>
-      </c>
-      <c r="G67">
-        <v>1953344</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68">
-        <v>165</v>
-      </c>
-      <c r="B68" t="s">
-        <v>24</v>
-      </c>
-      <c r="C68">
-        <v>67</v>
-      </c>
-      <c r="D68" t="s">
-        <v>94</v>
-      </c>
-      <c r="E68" t="s">
-        <v>115</v>
-      </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69">
-        <v>165</v>
-      </c>
-      <c r="B69" t="s">
-        <v>24</v>
-      </c>
-      <c r="C69">
-        <v>68</v>
-      </c>
-      <c r="D69" t="s">
-        <v>95</v>
-      </c>
-      <c r="E69" t="s">
-        <v>134</v>
-      </c>
-      <c r="F69">
-        <v>1948</v>
-      </c>
-      <c r="G69">
-        <v>131431</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70">
-        <v>170</v>
-      </c>
-      <c r="B70" t="s">
-        <v>25</v>
-      </c>
-      <c r="C70">
-        <v>69</v>
-      </c>
-      <c r="D70" t="s">
-        <v>96</v>
-      </c>
-      <c r="E70" t="s">
-        <v>129</v>
-      </c>
-      <c r="F70">
-        <v>581</v>
-      </c>
-      <c r="G70">
-        <v>32663</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71">
-        <v>186</v>
-      </c>
-      <c r="B71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C71">
-        <v>70</v>
-      </c>
-      <c r="D71" t="s">
-        <v>97</v>
-      </c>
-      <c r="E71" t="s">
-        <v>128</v>
-      </c>
-      <c r="F71">
-        <v>9257</v>
-      </c>
-      <c r="G71">
-        <v>208189</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72">
-        <v>187</v>
-      </c>
-      <c r="B72" t="s">
-        <v>27</v>
-      </c>
-      <c r="C72">
-        <v>71</v>
-      </c>
-      <c r="D72" t="s">
-        <v>98</v>
-      </c>
-      <c r="E72" t="s">
-        <v>111</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73">
-        <v>187</v>
-      </c>
-      <c r="B73" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73">
-        <v>72</v>
-      </c>
-      <c r="D73" t="s">
-        <v>99</v>
-      </c>
-      <c r="E73" t="s">
-        <v>128</v>
-      </c>
-      <c r="F73">
-        <v>996</v>
-      </c>
-      <c r="G73">
-        <v>37330</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74">
-        <v>187</v>
-      </c>
-      <c r="B74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74">
-        <v>73</v>
-      </c>
-      <c r="D74" t="s">
-        <v>100</v>
-      </c>
-      <c r="E74" t="s">
-        <v>128</v>
-      </c>
-      <c r="F74">
-        <v>728</v>
-      </c>
-      <c r="G74">
-        <v>24555</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75">
-        <v>187</v>
-      </c>
-      <c r="B75" t="s">
-        <v>27</v>
-      </c>
-      <c r="C75">
-        <v>74</v>
-      </c>
-      <c r="D75" t="s">
-        <v>101</v>
-      </c>
-      <c r="E75" t="s">
-        <v>111</v>
-      </c>
-      <c r="F75">
-        <v>2031</v>
-      </c>
-      <c r="G75">
-        <v>182708</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76">
-        <v>187</v>
-      </c>
-      <c r="B76" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76">
-        <v>75</v>
-      </c>
-      <c r="D76" t="s">
-        <v>102</v>
-      </c>
-      <c r="E76" t="s">
-        <v>128</v>
-      </c>
-      <c r="F76">
-        <v>21014</v>
-      </c>
-      <c r="G76">
-        <v>1102604</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
-      <c r="A77">
-        <v>187</v>
-      </c>
-      <c r="B77" t="s">
-        <v>27</v>
-      </c>
-      <c r="C77">
-        <v>76</v>
-      </c>
-      <c r="D77" t="s">
-        <v>103</v>
-      </c>
-      <c r="E77" t="s">
-        <v>111</v>
-      </c>
-      <c r="F77">
-        <v>4146</v>
-      </c>
-      <c r="G77">
-        <v>202034</v>
       </c>
     </row>
   </sheetData>
